--- a/UI_Collection.xlsx
+++ b/UI_Collection.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22060"/>
+    <workbookView windowHeight="15020"/>
   </bookViews>
   <sheets>
     <sheet name="国际网站" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">国际网站!$B$1:$B$101</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="348">
+  <si>
+    <t>来源</t>
+  </si>
   <si>
     <t>分类</t>
   </si>
@@ -47,6 +53,9 @@
     <t>设计风格特点</t>
   </si>
   <si>
+    <t>国外</t>
+  </si>
+  <si>
     <t>SaaS</t>
   </si>
   <si>
@@ -560,7 +569,10 @@
     <t>创意课程，项目驱动，社区作品</t>
   </si>
   <si>
-    <t>国内SaaS协作工具</t>
+    <t>国内</t>
+  </si>
+  <si>
+    <t>SaaS协作工具</t>
   </si>
   <si>
     <t>生产力平台</t>
@@ -611,9 +623,6 @@
     <t>国产办公，功能完整，兼容感，用户友好</t>
   </si>
   <si>
-    <t>国内金融科技</t>
-  </si>
-  <si>
     <t>支付与投资</t>
   </si>
   <si>
@@ -662,9 +671,6 @@
     <t>消费信贷，年轻感，蚂蚁品牌，简洁友好</t>
   </si>
   <si>
-    <t>国内电商平台</t>
-  </si>
-  <si>
     <t>零售生态</t>
   </si>
   <si>
@@ -713,7 +719,7 @@
     <t>特卖平台，紫色品牌，折扣感，品牌直供</t>
   </si>
   <si>
-    <t>国内内容社区</t>
+    <t>内容社区</t>
   </si>
   <si>
     <t>UGC驱动</t>
@@ -764,7 +770,7 @@
     <t>品味社区，极简设计，内容导向，评分系统</t>
   </si>
   <si>
-    <t>国内短视频电商</t>
+    <t>短视频电商</t>
   </si>
   <si>
     <t>直播带货</t>
@@ -815,7 +821,7 @@
     <t>长视频电商，创作者平台，内容优先，社交分享</t>
   </si>
   <si>
-    <t>国内云计算服务</t>
+    <t>云计算服务</t>
   </si>
   <si>
     <t>基础设施</t>
@@ -866,7 +872,7 @@
     <t>中立云服务，灰蓝配色，国内覆盖，专业支持</t>
   </si>
   <si>
-    <t>国内设计创意工具</t>
+    <t>设计创意工具</t>
   </si>
   <si>
     <t>无代码建设</t>
@@ -917,7 +923,7 @@
     <t>商业SaaS，微商城，小程序，电商全链路</t>
   </si>
   <si>
-    <t>国内AI应用平台</t>
+    <t>AI应用平台</t>
   </si>
   <si>
     <t>技术创新</t>
@@ -968,7 +974,7 @@
     <t>视觉AI，高科技感，企业级，创新展示</t>
   </si>
   <si>
-    <t>国内品牌企业官网</t>
+    <t>品牌企业官网</t>
   </si>
   <si>
     <t>科技消费</t>
@@ -1019,7 +1025,7 @@
     <t>短视频巨头，下沉友好，社区驱动，生活记录</t>
   </si>
   <si>
-    <t>国内新兴创意品牌</t>
+    <t>新兴创意品牌</t>
   </si>
   <si>
     <t>生活方式</t>
@@ -1779,6 +1785,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2064,20 +2077,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="45" customWidth="1"/>
+    <col min="2" max="2" width="39.7403846153846" customWidth="1"/>
+    <col min="3" max="3" width="15.3846153846154" customWidth="1"/>
+    <col min="4" max="4" width="20.9903846153846" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:6">
+    <row r="1" ht="17" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2096,1080 +2112,1263 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="17" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="17" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="17" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="17" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="17" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="17" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="17" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="17" spans="1:7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="17" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" ht="17" spans="1:6">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="34" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="34" spans="1:6">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" ht="17" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" ht="17" spans="1:6">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" ht="17" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" ht="17" spans="1:6">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" ht="17" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" ht="17" spans="1:7">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" ht="17" spans="1:7">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" ht="17" spans="1:7">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" ht="17" spans="1:7">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" ht="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" ht="17" spans="1:7">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" ht="17" spans="1:7">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" ht="17" spans="1:7">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" ht="17" spans="1:7">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" ht="17" spans="1:7">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" ht="17" spans="1:7">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" ht="17" spans="1:7">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" ht="17" spans="1:7">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" ht="17" spans="1:7">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" ht="17" spans="1:7">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" ht="17" spans="1:7">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" ht="17" spans="1:7">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" ht="17" spans="1:7">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" ht="17" spans="1:7">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="1:7">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" ht="17" spans="1:7">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:7">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" ht="17" spans="1:7">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" ht="17" spans="1:7">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" ht="17" spans="1:7">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" ht="17" spans="1:7">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" ht="17" spans="1:7">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" ht="17" spans="1:7">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" ht="17" spans="1:7">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" ht="17" spans="1:7">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" ht="17" spans="1:7">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" ht="17" spans="1:7">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" ht="17" spans="1:7">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" ht="17" spans="1:7">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" ht="17" spans="1:7">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" ht="17" spans="1:7">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" ht="17" spans="1:7">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" ht="17" spans="1:7">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" ht="17" spans="1:7">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" ht="17" spans="1:7">
+      <c r="A52" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" ht="17" spans="1:7">
+      <c r="A53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" ht="17" spans="1:7">
+      <c r="A54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" ht="17" spans="1:7">
+      <c r="A55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" ht="17" spans="1:7">
+      <c r="A56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" ht="17" spans="1:7">
+      <c r="A57" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" ht="17" spans="1:6">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" ht="17" spans="1:7">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" ht="17" spans="1:7">
+      <c r="A59" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" ht="17" spans="1:7">
+      <c r="A60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" ht="17" spans="1:7">
+      <c r="A61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" ht="17" spans="1:7">
+      <c r="A62" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" ht="17" spans="1:6">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" ht="17" spans="1:6">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" ht="17" spans="1:6">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" ht="17" spans="1:6">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" ht="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" ht="17" spans="1:6">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" ht="17" spans="1:6">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" ht="17" spans="1:6">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" ht="17" spans="1:6">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" ht="17" spans="1:6">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" ht="17" spans="1:6">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" ht="17" spans="1:6">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" ht="17" spans="1:6">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" ht="17" spans="1:6">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" ht="17" spans="1:6">
-      <c r="A27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" ht="17" spans="1:6">
-      <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" ht="17" spans="1:6">
-      <c r="A29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" ht="17" spans="1:6">
-      <c r="A30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" ht="17" spans="1:6">
-      <c r="A31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" ht="17" spans="1:6">
-      <c r="A32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" ht="17" spans="1:6">
-      <c r="A33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" ht="17" spans="1:6">
-      <c r="A34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" ht="17" spans="1:6">
-      <c r="A35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" ht="17" spans="1:6">
-      <c r="A36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" ht="17" spans="1:6">
-      <c r="A37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" ht="17" spans="1:6">
-      <c r="A38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" ht="17" spans="1:6">
-      <c r="A39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" ht="17" spans="1:6">
-      <c r="A40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" ht="17" spans="1:6">
-      <c r="A41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" ht="17" spans="1:6">
-      <c r="A42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" ht="17" spans="1:6">
-      <c r="A43" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" ht="17" spans="1:6">
-      <c r="A44" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" ht="17" spans="1:6">
-      <c r="A45" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" ht="17" spans="1:6">
-      <c r="A46" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" ht="17" spans="1:6">
-      <c r="A47" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" ht="17" spans="1:6">
-      <c r="A48" t="s">
-        <v>160</v>
-      </c>
-      <c r="B48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" ht="17" spans="1:6">
-      <c r="A49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" ht="17" spans="1:6">
-      <c r="A50" t="s">
-        <v>160</v>
-      </c>
-      <c r="B50" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" ht="17" spans="1:6">
-      <c r="A51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" ht="17" spans="1:6">
-      <c r="A52" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" ht="17" spans="1:6">
-      <c r="A53" t="s">
-        <v>177</v>
-      </c>
-      <c r="B53" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" ht="17" spans="1:6">
-      <c r="A54" t="s">
-        <v>177</v>
-      </c>
-      <c r="B54" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" ht="17" spans="1:6">
-      <c r="A55" t="s">
-        <v>177</v>
-      </c>
-      <c r="B55" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" ht="17" spans="1:6">
-      <c r="A56" t="s">
-        <v>177</v>
-      </c>
-      <c r="B56" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="57" ht="17" spans="1:6">
-      <c r="A57" t="s">
-        <v>194</v>
-      </c>
-      <c r="B57" t="s">
-        <v>195</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" ht="17" spans="1:6">
-      <c r="A58" t="s">
-        <v>194</v>
-      </c>
-      <c r="B58" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" ht="17" spans="1:6">
-      <c r="A59" t="s">
-        <v>194</v>
-      </c>
-      <c r="B59" t="s">
-        <v>195</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" ht="17" spans="1:6">
-      <c r="A60" t="s">
-        <v>194</v>
-      </c>
-      <c r="B60" t="s">
-        <v>195</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" ht="17" spans="1:6">
-      <c r="A61" t="s">
-        <v>194</v>
-      </c>
-      <c r="B61" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" ht="17" spans="1:6">
-      <c r="A62" t="s">
-        <v>211</v>
-      </c>
-      <c r="B62" t="s">
-        <v>212</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="C62" t="s">
         <v>213</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -3178,16 +3377,19 @@
       <c r="F62" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="63" ht="17" spans="1:6">
+      <c r="G62" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" ht="17" spans="1:7">
       <c r="A63" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="B63" t="s">
-        <v>212</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>216</v>
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
+        <v>213</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>217</v>
@@ -3195,16 +3397,19 @@
       <c r="F63" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="64" ht="17" spans="1:6">
+      <c r="G63" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" ht="17" spans="1:7">
       <c r="A64" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>219</v>
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>213</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>220</v>
@@ -3212,16 +3417,19 @@
       <c r="F64" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="65" ht="17" spans="1:6">
+      <c r="G64" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" ht="17" spans="1:7">
       <c r="A65" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>222</v>
+        <v>44</v>
+      </c>
+      <c r="C65" t="s">
+        <v>213</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>223</v>
@@ -3229,16 +3437,19 @@
       <c r="F65" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="66" ht="17" spans="1:6">
+      <c r="G65" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" ht="17" spans="1:7">
       <c r="A66" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="B66" t="s">
-        <v>212</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>225</v>
+        <v>44</v>
+      </c>
+      <c r="C66" t="s">
+        <v>213</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>226</v>
@@ -3246,15 +3457,18 @@
       <c r="F66" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="67" ht="17" spans="1:6">
+      <c r="G66" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" ht="17" spans="1:7">
       <c r="A67" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s">
         <v>229</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="C67" t="s">
         <v>230</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -3263,16 +3477,19 @@
       <c r="F67" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="68" ht="17" spans="1:6">
+      <c r="G67" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" ht="17" spans="1:7">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s">
         <v>229</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>233</v>
+      <c r="C68" t="s">
+        <v>230</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>234</v>
@@ -3280,16 +3497,19 @@
       <c r="F68" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="69" ht="17" spans="1:6">
+      <c r="G68" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" ht="17" spans="1:7">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="B69" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>236</v>
+      <c r="C69" t="s">
+        <v>230</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>237</v>
@@ -3297,16 +3517,19 @@
       <c r="F69" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="70" ht="17" spans="1:6">
+      <c r="G69" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" ht="17" spans="1:7">
       <c r="A70" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="B70" t="s">
         <v>229</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>239</v>
+      <c r="C70" t="s">
+        <v>230</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>240</v>
@@ -3314,16 +3537,19 @@
       <c r="F70" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="71" ht="17" spans="1:6">
+      <c r="G70" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" ht="17" spans="1:7">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="B71" t="s">
         <v>229</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>242</v>
+      <c r="C71" t="s">
+        <v>230</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>243</v>
@@ -3331,15 +3557,18 @@
       <c r="F71" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="72" ht="17" spans="1:6">
+      <c r="G71" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" ht="17" spans="1:7">
       <c r="A72" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s">
         <v>246</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="C72" t="s">
         <v>247</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -3348,16 +3577,19 @@
       <c r="F72" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="73" ht="17" spans="1:6">
+      <c r="G72" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" ht="17" spans="1:7">
       <c r="A73" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s">
         <v>246</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>250</v>
+      <c r="C73" t="s">
+        <v>247</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>251</v>
@@ -3365,16 +3597,19 @@
       <c r="F73" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="74" ht="17" spans="1:6">
+      <c r="G73" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" ht="17" spans="1:7">
       <c r="A74" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="B74" t="s">
         <v>246</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>253</v>
+      <c r="C74" t="s">
+        <v>247</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>254</v>
@@ -3382,16 +3617,19 @@
       <c r="F74" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="75" ht="17" spans="1:6">
+      <c r="G74" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" ht="17" spans="1:7">
       <c r="A75" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="B75" t="s">
         <v>246</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>256</v>
+      <c r="C75" t="s">
+        <v>247</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>257</v>
@@ -3399,16 +3637,19 @@
       <c r="F75" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="76" ht="34" spans="1:6">
+      <c r="G75" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" ht="34" spans="1:7">
       <c r="A76" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="B76" t="s">
         <v>246</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>259</v>
+      <c r="C76" t="s">
+        <v>247</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>260</v>
@@ -3416,15 +3657,18 @@
       <c r="F76" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="77" ht="17" spans="1:6">
+      <c r="G76" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" ht="17" spans="1:7">
       <c r="A77" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="B77" t="s">
         <v>263</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="C77" t="s">
         <v>264</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -3433,16 +3677,19 @@
       <c r="F77" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="78" ht="34" spans="1:6">
+      <c r="G77" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" ht="34" spans="1:7">
       <c r="A78" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s">
         <v>263</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>267</v>
+      <c r="C78" t="s">
+        <v>264</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>268</v>
@@ -3450,16 +3697,19 @@
       <c r="F78" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="79" ht="17" spans="1:6">
+      <c r="G78" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" ht="17" spans="1:7">
       <c r="A79" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
         <v>263</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>270</v>
+      <c r="C79" t="s">
+        <v>264</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>271</v>
@@ -3467,16 +3717,19 @@
       <c r="F79" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="80" ht="17" spans="1:6">
+      <c r="G79" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" ht="17" spans="1:7">
       <c r="A80" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="B80" t="s">
         <v>263</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>273</v>
+      <c r="C80" t="s">
+        <v>264</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>274</v>
@@ -3484,16 +3737,19 @@
       <c r="F80" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="81" ht="17" spans="1:6">
+      <c r="G80" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" ht="17" spans="1:7">
       <c r="A81" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="B81" t="s">
         <v>263</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>276</v>
+      <c r="C81" t="s">
+        <v>264</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>277</v>
@@ -3501,15 +3757,18 @@
       <c r="F81" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="82" ht="17" spans="1:6">
+      <c r="G81" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" ht="17" spans="1:7">
       <c r="A82" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="B82" t="s">
         <v>280</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="C82" t="s">
         <v>281</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -3518,16 +3777,19 @@
       <c r="F82" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="83" ht="17" spans="1:6">
+      <c r="G82" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="83" ht="17" spans="1:7">
       <c r="A83" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="B83" t="s">
         <v>280</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>284</v>
+      <c r="C83" t="s">
+        <v>281</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>285</v>
@@ -3535,16 +3797,19 @@
       <c r="F83" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="84" ht="17" spans="1:6">
+      <c r="G83" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" ht="17" spans="1:7">
       <c r="A84" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="B84" t="s">
         <v>280</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>287</v>
+      <c r="C84" t="s">
+        <v>281</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>288</v>
@@ -3552,16 +3817,19 @@
       <c r="F84" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="85" ht="17" spans="1:6">
+      <c r="G84" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="85" ht="17" spans="1:7">
       <c r="A85" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="B85" t="s">
         <v>280</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>290</v>
+      <c r="C85" t="s">
+        <v>281</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>291</v>
@@ -3569,16 +3837,19 @@
       <c r="F85" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="86" ht="17" spans="1:6">
+      <c r="G85" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="86" ht="17" spans="1:7">
       <c r="A86" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="B86" t="s">
         <v>280</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>293</v>
+      <c r="C86" t="s">
+        <v>281</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>294</v>
@@ -3586,15 +3857,18 @@
       <c r="F86" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="87" ht="34" spans="1:6">
+      <c r="G86" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="87" ht="34" spans="1:7">
       <c r="A87" t="s">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="B87" t="s">
         <v>297</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="C87" t="s">
         <v>298</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -3603,16 +3877,19 @@
       <c r="F87" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="88" ht="17" spans="1:6">
+      <c r="G87" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" ht="17" spans="1:7">
       <c r="A88" t="s">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="B88" t="s">
         <v>297</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>301</v>
+      <c r="C88" t="s">
+        <v>298</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>302</v>
@@ -3620,16 +3897,19 @@
       <c r="F88" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="89" ht="17" spans="1:6">
+      <c r="G88" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" ht="17" spans="1:7">
       <c r="A89" t="s">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
         <v>297</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>304</v>
+      <c r="C89" t="s">
+        <v>298</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>305</v>
@@ -3637,16 +3917,19 @@
       <c r="F89" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="90" ht="17" spans="1:6">
+      <c r="G89" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="90" ht="17" spans="1:7">
       <c r="A90" t="s">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="B90" t="s">
         <v>297</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>307</v>
+      <c r="C90" t="s">
+        <v>298</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>308</v>
@@ -3654,16 +3937,19 @@
       <c r="F90" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="91" ht="17" spans="1:6">
+      <c r="G90" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="91" ht="17" spans="1:7">
       <c r="A91" t="s">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s">
         <v>297</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>310</v>
+      <c r="C91" t="s">
+        <v>298</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>311</v>
@@ -3671,15 +3957,18 @@
       <c r="F91" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="92" ht="17" spans="1:6">
+      <c r="G91" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" ht="17" spans="1:7">
       <c r="A92" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="B92" t="s">
         <v>314</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="C92" t="s">
         <v>315</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -3688,16 +3977,19 @@
       <c r="F92" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="93" ht="17" spans="1:6">
+      <c r="G92" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="93" ht="17" spans="1:7">
       <c r="A93" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="B93" t="s">
         <v>314</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>318</v>
+      <c r="C93" t="s">
+        <v>315</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>319</v>
@@ -3705,16 +3997,19 @@
       <c r="F93" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="94" ht="17" spans="1:6">
+      <c r="G93" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="94" ht="17" spans="1:7">
       <c r="A94" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="B94" t="s">
         <v>314</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>321</v>
+      <c r="C94" t="s">
+        <v>315</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>322</v>
@@ -3722,16 +4017,19 @@
       <c r="F94" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="95" ht="17" spans="1:6">
+      <c r="G94" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="95" ht="17" spans="1:7">
       <c r="A95" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="B95" t="s">
         <v>314</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>324</v>
+      <c r="C95" t="s">
+        <v>315</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>325</v>
@@ -3739,16 +4037,19 @@
       <c r="F95" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="96" ht="17" spans="1:6">
+      <c r="G95" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" ht="17" spans="1:7">
       <c r="A96" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="B96" t="s">
         <v>314</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>327</v>
+      <c r="C96" t="s">
+        <v>315</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>328</v>
@@ -3756,15 +4057,18 @@
       <c r="F96" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="97" ht="17" spans="1:6">
+      <c r="G96" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" ht="17" spans="1:7">
       <c r="A97" t="s">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c r="B97" t="s">
         <v>331</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="C97" t="s">
         <v>332</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -3773,16 +4077,19 @@
       <c r="F97" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="98" ht="17" spans="1:6">
+      <c r="G97" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="98" ht="17" spans="1:7">
       <c r="A98" t="s">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c r="B98" t="s">
         <v>331</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>335</v>
+      <c r="C98" t="s">
+        <v>332</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>336</v>
@@ -3790,16 +4097,19 @@
       <c r="F98" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="99" ht="17" spans="1:6">
+      <c r="G98" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="99" ht="17" spans="1:7">
       <c r="A99" t="s">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c r="B99" t="s">
         <v>331</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>338</v>
+      <c r="C99" t="s">
+        <v>332</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>339</v>
@@ -3807,16 +4117,19 @@
       <c r="F99" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="100" ht="17" spans="1:6">
+      <c r="G99" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="100" ht="17" spans="1:7">
       <c r="A100" t="s">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c r="B100" t="s">
         <v>331</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>341</v>
+      <c r="C100" t="s">
+        <v>332</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>342</v>
@@ -3824,16 +4137,19 @@
       <c r="F100" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="101" ht="17" spans="1:6">
+      <c r="G100" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="101" ht="17" spans="1:7">
       <c r="A101" t="s">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c r="B101" t="s">
         <v>331</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>344</v>
+      <c r="C101" t="s">
+        <v>332</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>345</v>
@@ -3841,8 +4157,14 @@
       <c r="F101" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="G101" s="2" t="s">
+        <v>347</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B1:B101" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
